--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42989,6 +42989,41 @@
         <v>14900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43024,6 +43024,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43059,6 +43059,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>75000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43094,6 +43094,41 @@
         <v>75000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>23000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43129,6 +43129,41 @@
         <v>23000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43164,6 +43164,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>914200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43199,6 +43199,41 @@
         <v>914200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>123200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43234,6 +43234,41 @@
         <v>123200</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>52000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43269,6 +43269,41 @@
         <v>52000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>70200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43304,6 +43304,41 @@
         <v>70200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>91400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43339,6 +43339,41 @@
         <v>91400</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>37700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43374,6 +43374,41 @@
         <v>37700</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>47800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43409,6 +43409,76 @@
         <v>47800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>268400</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>153200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43479,6 +43479,76 @@
         <v>153200</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>53000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43549,6 +43549,41 @@
         <v>53000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>36000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43584,6 +43584,41 @@
         <v>36000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>42700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43619,6 +43619,41 @@
         <v>42700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>15300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43654,6 +43654,41 @@
         <v>15300</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>382300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43689,6 +43689,76 @@
         <v>382300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>281000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>118000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43759,6 +43759,41 @@
         <v>118000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>200500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43794,6 +43794,41 @@
         <v>200500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>410100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2013"/>
+  <dimension ref="A1:I2014"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70849,6 +70849,41 @@
         <v>410100</v>
       </c>
     </row>
+    <row r="2014">
+      <c r="A2014" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2014" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2014" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2014" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2014" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2014" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H2014" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I2014" t="n">
+        <v>316600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2014"/>
+  <dimension ref="A1:I2015"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70884,6 +70884,41 @@
         <v>316600</v>
       </c>
     </row>
+    <row r="2015">
+      <c r="A2015" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2015" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2015" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2015" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2015" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2015" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H2015" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I2015" t="n">
+        <v>325000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2015"/>
+  <dimension ref="A1:I2016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70919,6 +70919,41 @@
         <v>325000</v>
       </c>
     </row>
+    <row r="2016">
+      <c r="A2016" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2016" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2016" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2016" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F2016" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2016" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H2016" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I2016" t="n">
+        <v>790800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2016"/>
+  <dimension ref="A1:I2017"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70954,6 +70954,41 @@
         <v>790800</v>
       </c>
     </row>
+    <row r="2017">
+      <c r="A2017" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2017" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2017" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2017" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2017" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G2017" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H2017" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I2017" t="n">
+        <v>1050800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2017"/>
+  <dimension ref="A1:I2018"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70989,6 +70989,41 @@
         <v>1050800</v>
       </c>
     </row>
+    <row r="2018">
+      <c r="A2018" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2018" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2018" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2018" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2018" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G2018" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H2018" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I2018" t="n">
+        <v>48000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2018"/>
+  <dimension ref="A1:I2019"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71024,6 +71024,41 @@
         <v>48000</v>
       </c>
     </row>
+    <row r="2019">
+      <c r="A2019" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2019" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2019" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2019" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2019" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G2019" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2019" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I2019" t="n">
+        <v>120100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2019"/>
+  <dimension ref="A1:I2020"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71059,6 +71059,41 @@
         <v>120100</v>
       </c>
     </row>
+    <row r="2020">
+      <c r="A2020" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2020" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2020" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2020" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2020" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G2020" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2020" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I2020" t="n">
+        <v>64000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2020"/>
+  <dimension ref="A1:I2021"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71094,6 +71094,41 @@
         <v>64000</v>
       </c>
     </row>
+    <row r="2021">
+      <c r="A2021" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2021" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2021" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2021" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2021" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2021" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2021" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I2021" t="n">
+        <v>89600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2021"/>
+  <dimension ref="A1:I2022"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71129,6 +71129,41 @@
         <v>89600</v>
       </c>
     </row>
+    <row r="2022">
+      <c r="A2022" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2022" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2022" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2022" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2022" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G2022" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2022" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I2022" t="n">
+        <v>78300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2022"/>
+  <dimension ref="A1:I2023"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71164,6 +71164,41 @@
         <v>78300</v>
       </c>
     </row>
+    <row r="2023">
+      <c r="A2023" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2023" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2023" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2023" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2023" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G2023" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H2023" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I2023" t="n">
+        <v>118800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2023"/>
+  <dimension ref="A1:I2024"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71199,6 +71199,41 @@
         <v>118800</v>
       </c>
     </row>
+    <row r="2024">
+      <c r="A2024" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2024" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2024" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2024" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2024" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G2024" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2024" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I2024" t="n">
+        <v>55800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2024"/>
+  <dimension ref="A1:I2025"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71234,6 +71234,41 @@
         <v>55800</v>
       </c>
     </row>
+    <row r="2025">
+      <c r="A2025" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2025" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2025" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2025" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F2025" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2025" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H2025" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2025" t="n">
+        <v>25600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2025"/>
+  <dimension ref="A1:I2026"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71269,6 +71269,41 @@
         <v>25600</v>
       </c>
     </row>
+    <row r="2026">
+      <c r="A2026" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2026" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2026" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2026" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F2026" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2026" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H2026" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I2026" t="n">
+        <v>7500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2026"/>
+  <dimension ref="A1:I2027"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71304,6 +71304,41 @@
         <v>7500</v>
       </c>
     </row>
+    <row r="2027">
+      <c r="A2027" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2027" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2027" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2027" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2027" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2027" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2027" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2027" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2027"/>
+  <dimension ref="A1:I2028"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71339,6 +71339,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="2028">
+      <c r="A2028" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2028" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2028" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2028" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2028" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2028" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H2028" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2028" t="n">
+        <v>30100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2028"/>
+  <dimension ref="A1:I2029"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71374,6 +71374,41 @@
         <v>30100</v>
       </c>
     </row>
+    <row r="2029">
+      <c r="A2029" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2029" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2029" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2029" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F2029" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G2029" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2029" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I2029" t="n">
+        <v>54300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2029"/>
+  <dimension ref="A1:I2030"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71409,6 +71409,41 @@
         <v>54300</v>
       </c>
     </row>
+    <row r="2030">
+      <c r="A2030" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2030" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2030" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2030" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F2030" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G2030" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H2030" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I2030" t="n">
+        <v>139900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2030"/>
+  <dimension ref="A1:I2031"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71444,6 +71444,41 @@
         <v>139900</v>
       </c>
     </row>
+    <row r="2031">
+      <c r="A2031" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2031" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2031" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2031" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F2031" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G2031" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H2031" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I2031" t="n">
+        <v>373000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2031"/>
+  <dimension ref="A1:I2032"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71479,6 +71479,41 @@
         <v>373000</v>
       </c>
     </row>
+    <row r="2032">
+      <c r="A2032" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2032" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2032" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2032" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F2032" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G2032" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H2032" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2032" t="n">
+        <v>84400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2032"/>
+  <dimension ref="A1:I2033"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71514,6 +71514,41 @@
         <v>84400</v>
       </c>
     </row>
+    <row r="2033">
+      <c r="A2033" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2033" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2033" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2033" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2033" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G2033" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2033" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I2033" t="n">
+        <v>53000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2033"/>
+  <dimension ref="A1:I2034"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71549,6 +71549,41 @@
         <v>53000</v>
       </c>
     </row>
+    <row r="2034">
+      <c r="A2034" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2034" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2034" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2034" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F2034" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G2034" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H2034" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I2034" t="n">
+        <v>33000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2034"/>
+  <dimension ref="A1:I2035"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71584,6 +71584,41 @@
         <v>33000</v>
       </c>
     </row>
+    <row r="2035">
+      <c r="A2035" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2035" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2035" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2035" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F2035" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G2035" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2035" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I2035" t="n">
+        <v>20500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2035"/>
+  <dimension ref="A1:I2036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71619,6 +71619,41 @@
         <v>20500</v>
       </c>
     </row>
+    <row r="2036">
+      <c r="A2036" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2036" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2036" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2036" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F2036" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2036" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H2036" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I2036" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2036"/>
+  <dimension ref="A1:I2037"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71654,6 +71654,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2037">
+      <c r="A2037" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2037" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2037" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2037" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F2037" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2037" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2037" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I2037" t="n">
+        <v>33100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2037"/>
+  <dimension ref="A1:I2038"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71689,6 +71689,41 @@
         <v>33100</v>
       </c>
     </row>
+    <row r="2038">
+      <c r="A2038" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2038" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2038" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2038" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2038" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H2038" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I2038" t="n">
+        <v>77200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2038"/>
+  <dimension ref="A1:I2040"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71724,6 +71724,76 @@
         <v>77200</v>
       </c>
     </row>
+    <row r="2039">
+      <c r="A2039" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2039" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2039" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F2039" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G2039" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H2039" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2039" t="n">
+        <v>152400</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2040" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2040" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2040" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G2040" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H2040" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I2040" t="n">
+        <v>44300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2040"/>
+  <dimension ref="A1:I2041"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71794,6 +71794,41 @@
         <v>44300</v>
       </c>
     </row>
+    <row r="2041">
+      <c r="A2041" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2041" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F2041" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G2041" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H2041" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I2041" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2041"/>
+  <dimension ref="A1:I2044"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71829,6 +71829,111 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="2042">
+      <c r="A2042" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2042" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F2042" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G2042" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H2042" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I2042" t="n">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2043" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2043" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F2043" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G2043" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H2043" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I2043" t="n">
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2044" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2044" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2044" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F2044" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G2044" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H2044" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I2044" t="n">
+        <v>45800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2044"/>
+  <dimension ref="A1:I2045"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71934,6 +71934,41 @@
         <v>45800</v>
       </c>
     </row>
+    <row r="2045">
+      <c r="A2045" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2045" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2045" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2045" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2045" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H2045" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I2045" t="n">
+        <v>22800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2045"/>
+  <dimension ref="A1:I2046"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71969,6 +71969,41 @@
         <v>22800</v>
       </c>
     </row>
+    <row r="2046">
+      <c r="A2046" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2046" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2046" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2046" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F2046" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G2046" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H2046" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I2046" t="n">
+        <v>30500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5197.xlsx
+++ b/data/5197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2046"/>
+  <dimension ref="A1:I2049"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72004,6 +72004,111 @@
         <v>30500</v>
       </c>
     </row>
+    <row r="2047">
+      <c r="A2047" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2047" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2047" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2047" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2047" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2047" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2047" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2047" t="n">
+        <v>91300</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2048" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2048" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2048" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F2048" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2048" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H2048" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2048" t="n">
+        <v>21700</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="D2049" t="inlineStr">
+        <is>
+          <t>FLBHD</t>
+        </is>
+      </c>
+      <c r="E2049" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2049" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G2049" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2049" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I2049" t="n">
+        <v>151900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
